--- a/downloads/structures_page/Cofactors.xlsx
+++ b/downloads/structures_page/Cofactors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/blogs_all/Ribocentre-switch.github.io/downloads/structures_page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/1doctor/riboswitch_database/other_page_excel/Structure_page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A878DE-8165-404D-BF69-45FA1D9045B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BFB32-338A-3D4B-A1B3-7769F29C2541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="680" windowWidth="28960" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22760" yWindow="9180" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cofactors" sheetId="3" r:id="rId1"/>
@@ -1405,30 +1405,30 @@
     <t>NAD</t>
   </si>
   <si>
+    <t>NAD&lt;sup&gt;+&lt;/sup&gt;-I</t>
+  </si>
+  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/32295864/</t>
   </si>
   <si>
+    <t>NAD&lt;sup&gt;+&lt;/sup&gt;-I
+(domain I)</t>
+  </si>
+  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/33170270/</t>
   </si>
   <si>
+    <t>NAD&lt;sup&gt;+&lt;/sup&gt;-I
+(domain II)</t>
+  </si>
+  <si>
     <t>NAD2</t>
   </si>
   <si>
+    <t>NAD&lt;sup&gt;+&lt;/sup&gt;-II</t>
+  </si>
+  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/36840714/</t>
-  </si>
-  <si>
-    <t>NAD+-I</t>
-  </si>
-  <si>
-    <t>NAD+-I
-(domain I)</t>
-  </si>
-  <si>
-    <t>NAD+-I
-(domain II)</t>
-  </si>
-  <si>
-    <t>NAD+-II</t>
   </si>
 </sst>
 </file>
@@ -1498,12 +1498,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1536,7 +1548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1613,6 +1625,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1927,12 +1945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -2170,8 +2188,8 @@
       <c r="I6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="11">
-        <v>2020</v>
+      <c r="J6" s="29">
+        <v>2012</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>388</v>
@@ -2187,7 +2205,7 @@
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="11">
@@ -3365,7 +3383,7 @@
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="11">
@@ -6099,7 +6117,7 @@
         <v>459</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>323</v>
@@ -6129,7 +6147,7 @@
         <v>425</v>
       </c>
       <c r="L110" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30">
@@ -6137,7 +6155,7 @@
         <v>459</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>327</v>
@@ -6167,7 +6185,7 @@
         <v>425</v>
       </c>
       <c r="L111" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15">
@@ -6175,7 +6193,7 @@
         <v>459</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>329</v>
@@ -6205,7 +6223,7 @@
         <v>425</v>
       </c>
       <c r="L112" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15">
@@ -6213,7 +6231,7 @@
         <v>459</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>331</v>
@@ -6243,7 +6261,7 @@
         <v>425</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15">
@@ -6251,7 +6269,7 @@
         <v>459</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>333</v>
@@ -6281,7 +6299,7 @@
         <v>425</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15">
@@ -6289,7 +6307,7 @@
         <v>459</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>336</v>
@@ -6319,7 +6337,7 @@
         <v>425</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15">
@@ -6327,7 +6345,7 @@
         <v>459</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>339</v>
@@ -6357,7 +6375,7 @@
         <v>425</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15">
@@ -6365,7 +6383,7 @@
         <v>459</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>342</v>
@@ -6395,7 +6413,7 @@
         <v>425</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="15">
@@ -6403,7 +6421,7 @@
         <v>459</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>345</v>
@@ -6433,7 +6451,7 @@
         <v>425</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="30">
@@ -6441,7 +6459,7 @@
         <v>459</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>347</v>
@@ -6471,7 +6489,7 @@
         <v>392</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15">
@@ -6479,7 +6497,7 @@
         <v>459</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>350</v>
@@ -6509,7 +6527,7 @@
         <v>392</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15">
@@ -6517,7 +6535,7 @@
         <v>459</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>354</v>
@@ -6547,7 +6565,7 @@
         <v>392</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15">
@@ -6555,7 +6573,7 @@
         <v>459</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>357</v>
@@ -6585,7 +6603,7 @@
         <v>392</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15">
@@ -6593,7 +6611,7 @@
         <v>459</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>359</v>
@@ -6623,7 +6641,7 @@
         <v>392</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="30">
@@ -6631,7 +6649,7 @@
         <v>459</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>361</v>
@@ -6661,7 +6679,7 @@
         <v>392</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="15">
@@ -6669,7 +6687,7 @@
         <v>459</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>364</v>
@@ -6699,15 +6717,15 @@
         <v>392</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="30">
       <c r="A126" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>367</v>
@@ -6737,15 +6755,15 @@
         <v>392</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="30">
       <c r="A127" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>371</v>
@@ -6775,15 +6793,15 @@
         <v>392</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="30">
       <c r="A128" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>373</v>
@@ -6813,15 +6831,15 @@
         <v>392</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="30">
       <c r="A129" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>375</v>
@@ -6851,15 +6869,15 @@
         <v>392</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="30">
       <c r="A130" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>378</v>
@@ -6889,7 +6907,7 @@
         <v>392</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6898,77 +6916,77 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L70" r:id="rId1" tooltip="https://pubmed.ncbi.nlm.nih.gov/16810258/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="L71" r:id="rId2" tooltip="https://pubmed.ncbi.nlm.nih.gov/20006621/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="L76" r:id="rId3" tooltip="https://pubmed.ncbi.nlm.nih.gov/20637415/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="L79" r:id="rId4" tooltip="https://pubmed.ncbi.nlm.nih.gov/20951706/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="L80" r:id="rId5" tooltip="https://pubmed.ncbi.nlm.nih.gov/21893284/" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="L82" r:id="rId6" tooltip="https://pubmed.ncbi.nlm.nih.gov/22539525/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="L83" r:id="rId7" tooltip="https://pubmed.ncbi.nlm.nih.gov/23325110/" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="L84" r:id="rId8" tooltip="https://pubmed.ncbi.nlm.nih.gov/33978763/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="L86" r:id="rId9" tooltip="https://pubmed.ncbi.nlm.nih.gov/24753586/" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="L88" r:id="rId10" tooltip="https://pubmed.ncbi.nlm.nih.gov/18204466/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="L89" r:id="rId11" tooltip="https://pubmed.ncbi.nlm.nih.gov/18806797/" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="L93" r:id="rId12" tooltip="https://pubmed.ncbi.nlm.nih.gov/31796736/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="L94" r:id="rId13" tooltip="https://pubmed.ncbi.nlm.nih.gov/31796736/" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="L95" r:id="rId14" tooltip="https://pubmed.ncbi.nlm.nih.gov/29931337/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="L96" r:id="rId15" tooltip="https://pubmed.ncbi.nlm.nih.gov/31844059/" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="L100" r:id="rId16" tooltip="https://pubmed.ncbi.nlm.nih.gov/30590743/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="L101" r:id="rId17" tooltip="https://pubmed.ncbi.nlm.nih.gov/32520325/" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="L108" r:id="rId18" tooltip="https://pubmed.ncbi.nlm.nih.gov/20864509/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="L110" r:id="rId19" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="L119" r:id="rId20" tooltip="https://pubmed.ncbi.nlm.nih.gov/33170270/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="L126" r:id="rId21" tooltip="https://pubmed.ncbi.nlm.nih.gov/36840714/" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="L2" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="L3" r:id="rId23" tooltip="https://pubmed.ncbi.nlm.nih.gov/23064232/" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="L5" r:id="rId24" tooltip="https://pubmed.ncbi.nlm.nih.gov/32544228/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="L6" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="L4" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="L7" r:id="rId27" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="L8" r:id="rId28" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="L9" r:id="rId29" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="L10" r:id="rId30" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="L11" r:id="rId31" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="L12" r:id="rId32" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="L13" r:id="rId33" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="L14" r:id="rId34" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="L15" r:id="rId35" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="L16" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="L17" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="L18" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="L19" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="L20" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="L21" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="L24" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="L26" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="L28" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="L29" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="L30" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="L36" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="L38" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="L39" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="L40" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="L41" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="L42" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="L43" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="L44" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="L45" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="L46" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="L52" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="L55" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="L56" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="L58" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="L61" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="L65" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="L111" r:id="rId64" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="L112" r:id="rId65" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="L113" r:id="rId66" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="L114" r:id="rId67" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="L115" r:id="rId68" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="L116" r:id="rId69" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="L117" r:id="rId70" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="L118" r:id="rId71" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="L70" r:id="rId1" tooltip="https://pubmed.ncbi.nlm.nih.gov/16810258/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L71" r:id="rId2" tooltip="https://pubmed.ncbi.nlm.nih.gov/20006621/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="L76" r:id="rId3" tooltip="https://pubmed.ncbi.nlm.nih.gov/20637415/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="L79" r:id="rId4" tooltip="https://pubmed.ncbi.nlm.nih.gov/20951706/" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="L80" r:id="rId5" tooltip="https://pubmed.ncbi.nlm.nih.gov/21893284/" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="L82" r:id="rId6" tooltip="https://pubmed.ncbi.nlm.nih.gov/22539525/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="L83" r:id="rId7" tooltip="https://pubmed.ncbi.nlm.nih.gov/23325110/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="L84" r:id="rId8" tooltip="https://pubmed.ncbi.nlm.nih.gov/33978763/" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="L86" r:id="rId9" tooltip="https://pubmed.ncbi.nlm.nih.gov/24753586/" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="L88" r:id="rId10" tooltip="https://pubmed.ncbi.nlm.nih.gov/18204466/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="L89" r:id="rId11" tooltip="https://pubmed.ncbi.nlm.nih.gov/18806797/" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="L93" r:id="rId12" tooltip="https://pubmed.ncbi.nlm.nih.gov/31796736/" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="L94" r:id="rId13" tooltip="https://pubmed.ncbi.nlm.nih.gov/31796736/" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="L95" r:id="rId14" tooltip="https://pubmed.ncbi.nlm.nih.gov/29931337/" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="L96" r:id="rId15" tooltip="https://pubmed.ncbi.nlm.nih.gov/31844059/" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="L100" r:id="rId16" tooltip="https://pubmed.ncbi.nlm.nih.gov/30590743/" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="L101" r:id="rId17" tooltip="https://pubmed.ncbi.nlm.nih.gov/32520325/" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="L108" r:id="rId18" tooltip="https://pubmed.ncbi.nlm.nih.gov/20864509/" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="L110" r:id="rId19" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="L119" r:id="rId20" tooltip="https://pubmed.ncbi.nlm.nih.gov/33170270/" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="L126" r:id="rId21" tooltip="https://pubmed.ncbi.nlm.nih.gov/36840714/" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="L2" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="L3" r:id="rId23" tooltip="https://pubmed.ncbi.nlm.nih.gov/23064232/" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="L5" r:id="rId24" tooltip="https://pubmed.ncbi.nlm.nih.gov/32544228/" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="L6" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="L4" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="L7" r:id="rId27" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="L8" r:id="rId28" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="L9" r:id="rId29" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="L10" r:id="rId30" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="L11" r:id="rId31" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="L12" r:id="rId32" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="L13" r:id="rId33" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="L14" r:id="rId34" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="L15" r:id="rId35" tooltip="https://pubmed.ncbi.nlm.nih.gov/19169240/" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="L16" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="L17" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="L18" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="L19" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="L20" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="L21" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="L24" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="L26" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="L28" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="L29" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="L30" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="L36" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="L38" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="L39" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="L40" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="L41" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="L42" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="L43" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="L44" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="L45" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="L46" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="L52" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="L55" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="L56" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="L58" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="L61" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="L65" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="L111" r:id="rId64" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="L112" r:id="rId65" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="L113" r:id="rId66" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="L114" r:id="rId67" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="L115" r:id="rId68" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="L116" r:id="rId69" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="L117" r:id="rId70" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="L118" r:id="rId71" tooltip="https://pubmed.ncbi.nlm.nih.gov/32295864/" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
